--- a/DbLayouts/L5-管理性作業/CollRemind.xlsx
+++ b/DbLayouts/L5-管理性作業/CollRemind.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5F0EE-276C-4975-9DDC-251B21D71A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CCCCB-2831-425F-A42F-79628516F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,6 +536,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -547,9 +550,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,7 +893,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -908,10 +908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="3" t="s">
         <v>57</v>
       </c>
@@ -923,8 +923,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -936,10 +936,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
@@ -951,10 +951,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -962,10 +962,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -973,10 +973,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -984,10 +984,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1186,7 +1186,7 @@
       <c r="D18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="28">
         <v>4</v>
       </c>
       <c r="G18" s="27" t="s">
@@ -1224,7 +1224,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="19">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:7">
